--- a/Descargas/R15_Corte De Apelaciones De Santiago_Ingresos Corte_2020-Noviembre.xlsx
+++ b/Descargas/R15_Corte De Apelaciones De Santiago_Ingresos Corte_2020-Noviembre.xlsx
@@ -241,7 +241,7 @@
         </is>
       </c>
       <c r="B4" s="65">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="5">
@@ -281,7 +281,7 @@
         </is>
       </c>
       <c r="B8" s="65">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="9">
@@ -321,7 +321,7 @@
         </is>
       </c>
       <c r="B12" s="65">
-        <v>377</v>
+        <v>387</v>
       </c>
     </row>
     <row r="13">
@@ -341,7 +341,7 @@
         </is>
       </c>
       <c r="B14" s="65">
-        <v>2276</v>
+        <v>2277</v>
       </c>
     </row>
     <row r="15">
